--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3483.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3483.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191765355344901</v>
+        <v>0.7383365035057068</v>
       </c>
       <c r="B1">
-        <v>2.416257954794191</v>
+        <v>2.015712022781372</v>
       </c>
       <c r="C1">
-        <v>7.890531376945707</v>
+        <v>3.948572635650635</v>
       </c>
       <c r="D1">
-        <v>2.780801850063357</v>
+        <v>3.515429019927979</v>
       </c>
       <c r="E1">
-        <v>1.405163144144625</v>
+        <v>2.028938293457031</v>
       </c>
     </row>
   </sheetData>
